--- a/biology/Microbiologie/Vaginulinopsis/Vaginulinopsis.xlsx
+++ b/biology/Microbiologie/Vaginulinopsis/Vaginulinopsis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Vaginulinopsis est un genre de foraminifères de la classe des Nodosariata, de l'ordre des Vaginulinida et de la famille des Vaginulinidae. Ce genre est représenté essentiellement à l'état fossile, mais il comprend quelques espèces actuelles.
 </t>
@@ -511,7 +523,9 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Vaginulinopsis a été créé en 1904 par le paléontologue italien spécialiste des foraminifères Alfredo Silvestri (d) (1867-1950). 
 </t>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon le World Register of Marine Species                               (2 mai 2022)[1], le genre compte les espèces suivantes :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon le World Register of Marine Species                               (2 mai 2022), le genre compte les espèces suivantes :
 † Vaginulinopsis acanthonucleus Carter, 1958
 † Vaginulinopsis acrulus Tappan, 1951
 † Vaginulinopsis acutus Serova, 1989
@@ -696,7 +712,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(it) A. Silvestri, Ricerche strutturali su alcune forme dei Trubi dei Bonfornello (Palermo), Memorie dell'Accademia Pontificia dei Nuovi Lincei 22, 1904, p. 251.</t>
         </is>
